--- a/doc/design.xlsx
+++ b/doc/design.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>求租用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,13 @@
   </si>
   <si>
     <t>http://stackoverflow.com/questions/18142745/how-do-i-generate-a-salt-in-java-for-salted-hash</t>
+  </si>
+  <si>
+    <t>二维码生成工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tool.chinaz.com/qrcode</t>
   </si>
 </sst>
 </file>
@@ -571,7 +578,7 @@
   <dimension ref="A8:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -680,7 +687,7 @@
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -827,7 +834,7 @@
   <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -861,15 +868,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
